--- a/mf-intelligence/data/separated_files/nippon/Nippon India Aggressive Hybrid Fund/Nippon India Aggressive Hybrid Fund_Feb_2025.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Aggressive Hybrid Fund/Nippon India Aggressive Hybrid Fund_Feb_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1823,61 +1823,61 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BTVL03</t>
+          <t>APOT02</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>IN9397D01014</t>
+          <t>INE438A01022</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited- Partly Paid up</t>
+          <t>Apollo Tyres Limited</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Telecom - Services</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>144642</v>
+        <v>412840</v>
       </c>
       <c r="F44" t="n">
-        <v>1613.92</v>
+        <v>1545.26</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0046</v>
+        <v>0.0044</v>
       </c>
       <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>APOT02</t>
+          <t>SUPI02</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>INE438A01022</t>
+          <t>INE195A01028</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Apollo Tyres Limited</t>
+          <t>Supreme Industries Limited</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Auto Components</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>412840</v>
+        <v>46182</v>
       </c>
       <c r="F45" t="n">
-        <v>1545.26</v>
+        <v>1537.4</v>
       </c>
       <c r="G45" t="n">
         <v>0.0044</v>
@@ -1887,17 +1887,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SUPI02</t>
+          <t>KEII02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>INE195A01028</t>
+          <t>INE878B01027</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Supreme Industries Limited</t>
+          <t>KEI Industries Limited</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1906,106 +1906,106 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46182</v>
+        <v>50000</v>
       </c>
       <c r="F46" t="n">
-        <v>1537.4</v>
+        <v>1535.08</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0044</v>
+        <v>0.0043</v>
       </c>
       <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>KEII02</t>
+          <t>ILOM01</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>INE878B01027</t>
+          <t>INE765G01017</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>KEI Industries Limited</t>
+          <t>ICICI Lombard General Insurance Company Limited</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Industrial Products</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>50000</v>
+        <v>83617</v>
       </c>
       <c r="F47" t="n">
-        <v>1535.08</v>
+        <v>1413.92</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0043</v>
+        <v>0.004</v>
       </c>
       <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ILOM01</t>
+          <t>DEVY01</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>INE765G01017</t>
+          <t>INE872J01023</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ICICI Lombard General Insurance Company Limited</t>
+          <t>Devyani International Limited</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>83617</v>
+        <v>841640</v>
       </c>
       <c r="F48" t="n">
-        <v>1413.92</v>
+        <v>1388.87</v>
       </c>
       <c r="G48" t="n">
-        <v>0.004</v>
+        <v>0.0039</v>
       </c>
       <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DEVY01</t>
+          <t>UNES01</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>INE872J01023</t>
+          <t>INE00U401027</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Devyani International Limited</t>
+          <t>Unicommerce Esolutions Limited</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Leisure Services</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>841640</v>
+        <v>1296372</v>
       </c>
       <c r="F49" t="n">
-        <v>1388.87</v>
+        <v>1384.14</v>
       </c>
       <c r="G49" t="n">
         <v>0.0039</v>
@@ -2015,93 +2015,93 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>UNES01</t>
+          <t>CALC03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>INE00U401027</t>
+          <t>INE486A01021</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Unicommerce Esolutions Limited</t>
+          <t>CESC Limited</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>IT - Software</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1296372</v>
+        <v>1000000</v>
       </c>
       <c r="F50" t="n">
-        <v>1384.14</v>
+        <v>1307.9</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0039</v>
+        <v>0.0037</v>
       </c>
       <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CALC03</t>
+          <t>ELMA01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>INE486A01021</t>
+          <t>INE02YR01019</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CESC Limited</t>
+          <t>Electronics Mart India Limited</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1000000</v>
+        <v>1000550</v>
       </c>
       <c r="F51" t="n">
-        <v>1307.9</v>
+        <v>1260.99</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0037</v>
+        <v>0.0036</v>
       </c>
       <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ELMA01</t>
+          <t>TCSL01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>INE02YR01019</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Electronics Mart India Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Retailing</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1000550</v>
+        <v>36072</v>
       </c>
       <c r="F52" t="n">
-        <v>1260.99</v>
+        <v>1256.48</v>
       </c>
       <c r="G52" t="n">
         <v>0.0036</v>
@@ -2111,29 +2111,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TCSL01</t>
+          <t>BHAH02</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE257A01026</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>Bharat Heavy Electricals Limited</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>IT - Software</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36072</v>
+        <v>700000</v>
       </c>
       <c r="F53" t="n">
-        <v>1256.48</v>
+        <v>1254.19</v>
       </c>
       <c r="G53" t="n">
         <v>0.0036</v>
@@ -2143,93 +2143,93 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BHAH02</t>
+          <t>MEDP01</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>INE257A01026</t>
+          <t>INE804L01022</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Limited</t>
+          <t>MedPlus Health Services Limited</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Electrical Equipment</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>700000</v>
+        <v>169000</v>
       </c>
       <c r="F54" t="n">
-        <v>1254.19</v>
+        <v>1207.67</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0036</v>
+        <v>0.0034</v>
       </c>
       <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MEDP01</t>
+          <t>GLAN02</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>INE804L01022</t>
+          <t>INE068V01023</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MedPlus Health Services Limited</t>
+          <t>Gland Pharma Limited</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Retailing</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>169000</v>
+        <v>76000</v>
       </c>
       <c r="F55" t="n">
-        <v>1207.67</v>
+        <v>1180.13</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0034</v>
+        <v>0.0033</v>
       </c>
       <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GLAN02</t>
+          <t>CGCE01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>INE068V01023</t>
+          <t>INE299U01018</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Gland Pharma Limited</t>
+          <t>Crompton Greaves Consumer Electricals Limited</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>76000</v>
+        <v>360000</v>
       </c>
       <c r="F56" t="n">
-        <v>1180.13</v>
+        <v>1156.14</v>
       </c>
       <c r="G56" t="n">
         <v>0.0033</v>
@@ -2239,61 +2239,61 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CGCE01</t>
+          <t>BALN01</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>INE299U01018</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Crompton Greaves Consumer Electricals Limited</t>
+          <t>Bajaj Auto Limited</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Consumer Durables</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>360000</v>
+        <v>13180</v>
       </c>
       <c r="F57" t="n">
-        <v>1156.14</v>
+        <v>1041.6</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0033</v>
+        <v>0.0029</v>
       </c>
       <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BALN01</t>
+          <t>RAKH02</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE944F01028</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bajaj Auto Limited</t>
+          <t>Radico Khaitan Limited</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Automobiles</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>13180</v>
+        <v>50000</v>
       </c>
       <c r="F58" t="n">
-        <v>1041.6</v>
+        <v>1036.53</v>
       </c>
       <c r="G58" t="n">
         <v>0.0029</v>
@@ -2303,61 +2303,61 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RAKH02</t>
+          <t>PFCL01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>INE944F01028</t>
+          <t>INE134E01011</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Radico Khaitan Limited</t>
+          <t>Power Finance Corporation Limited</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>50000</v>
+        <v>254007</v>
       </c>
       <c r="F59" t="n">
-        <v>1036.53</v>
+        <v>925.35</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0029</v>
+        <v>0.0026</v>
       </c>
       <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PFCL01</t>
+          <t>KENI01</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>INE134E01011</t>
+          <t>INE146L01010</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Power Finance Corporation Limited</t>
+          <t>Kirloskar Oil Engines Limited</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>254007</v>
+        <v>160000</v>
       </c>
       <c r="F60" t="n">
-        <v>925.35</v>
+        <v>921.76</v>
       </c>
       <c r="G60" t="n">
         <v>0.0026</v>
@@ -2367,189 +2367,189 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>KENI01</t>
+          <t>FRHL01</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>INE146L01010</t>
+          <t>INE061F01013</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Kirloskar Oil Engines Limited</t>
+          <t>Fortis Healthcare Limited</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Industrial Products</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>160000</v>
+        <v>146646</v>
       </c>
       <c r="F61" t="n">
-        <v>921.76</v>
+        <v>898.5</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0026</v>
+        <v>0.0025</v>
       </c>
       <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>FRHL01</t>
+          <t>LATE01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>INE061F01013</t>
+          <t>INE0I7C01011</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fortis Healthcare Limited</t>
+          <t>Latent View Analytics Limited</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Healthcare Services</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>146646</v>
+        <v>222543</v>
       </c>
       <c r="F62" t="n">
-        <v>898.5</v>
+        <v>852.9</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0025</v>
+        <v>0.0024</v>
       </c>
       <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LATE01</t>
+          <t>SSNL02</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>INE0I7C01011</t>
+          <t>INE148O01028</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Latent View Analytics Limited</t>
+          <t>Delhivery Limited</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>IT - Software</t>
+          <t>Transport Services</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222543</v>
+        <v>324400</v>
       </c>
       <c r="F63" t="n">
-        <v>852.9</v>
+        <v>810.51</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0024</v>
+        <v>0.0023</v>
       </c>
       <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SSNL02</t>
+          <t>BFLS01</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>INE148O01028</t>
+          <t>INE356A01018</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Delhivery Limited</t>
+          <t>Mphasis Limited</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Transport Services</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>324400</v>
+        <v>35000</v>
       </c>
       <c r="F64" t="n">
-        <v>810.51</v>
+        <v>786.54</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0023</v>
+        <v>0.0022</v>
       </c>
       <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BFLS01</t>
+          <t>VMML01</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>INE356A01018</t>
+          <t>INE01EA01019</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mphasis Limited</t>
+          <t>Vishal Mega Mart Limited</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>IT - Software</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35000</v>
+        <v>755743</v>
       </c>
       <c r="F65" t="n">
-        <v>786.54</v>
+        <v>757.33</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0022</v>
+        <v>0.0021</v>
       </c>
       <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>VMML01</t>
+          <t>CIPL03</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>INE01EA01019</t>
+          <t>INE059A01026</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Vishal Mega Mart Limited</t>
+          <t>Cipla Limited</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Retailing</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>755743</v>
+        <v>53225</v>
       </c>
       <c r="F66" t="n">
-        <v>757.33</v>
+        <v>749.14</v>
       </c>
       <c r="G66" t="n">
         <v>0.0021</v>
@@ -2559,93 +2559,93 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CIPL03</t>
+          <t>BPCL01</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>INE059A01026</t>
+          <t>INE029A01011</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cipla Limited</t>
+          <t>Bharat Petroleum Corporation Limited</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>53225</v>
+        <v>300000</v>
       </c>
       <c r="F67" t="n">
-        <v>749.14</v>
+        <v>711.9</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0021</v>
+        <v>0.002</v>
       </c>
       <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BPCL01</t>
+          <t>STLI01</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>INE029A01011</t>
+          <t>INE01A001028</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Bharat Petroleum Corporation Limited</t>
+          <t>Stanley Lifestyles Limited</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Petroleum Products</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="F68" t="n">
-        <v>711.9</v>
+        <v>688.13</v>
       </c>
       <c r="G68" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>STLI01</t>
+          <t>FUJI02</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>INE01A001028</t>
+          <t>INE520A01027</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Stanley Lifestyles Limited</t>
+          <t>Zensar Technologies Limited</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Consumer Durables</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>250000</v>
+        <v>91081</v>
       </c>
       <c r="F69" t="n">
-        <v>688.13</v>
+        <v>672.59</v>
       </c>
       <c r="G69" t="n">
         <v>0.0019</v>
@@ -2655,29 +2655,29 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FUJI02</t>
+          <t>WESD02</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>INE520A01027</t>
+          <t>INE274F01020</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Zensar Technologies Limited</t>
+          <t>Westlife Foodworld Limited</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>IT - Software</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>91081</v>
+        <v>97486</v>
       </c>
       <c r="F70" t="n">
-        <v>672.59</v>
+        <v>665.88</v>
       </c>
       <c r="G70" t="n">
         <v>0.0019</v>
@@ -2687,29 +2687,29 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>WESD02</t>
+          <t>ACSO01</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>INE274F01020</t>
+          <t>INE622W01025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Westlife Foodworld Limited</t>
+          <t>Acme Solar Holdings Ltd</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Leisure Services</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>97486</v>
+        <v>341872</v>
       </c>
       <c r="F71" t="n">
-        <v>665.88</v>
+        <v>660.15</v>
       </c>
       <c r="G71" t="n">
         <v>0.0019</v>
@@ -2719,177 +2719,177 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ACSO01</t>
+          <t>EFPL01</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>INE622W01025</t>
+          <t>INE063P01018</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Acme Solar Holdings Ltd</t>
+          <t>Equitas Small Finance Bank Limited</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>341872</v>
+        <v>942378</v>
       </c>
       <c r="F72" t="n">
-        <v>660.15</v>
+        <v>535.9299999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0019</v>
+        <v>0.0015</v>
       </c>
       <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EFPL01</t>
+          <t>GRAS02</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>INE063P01018</t>
+          <t>INE047A01021</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Equitas Small Finance Bank Limited</t>
+          <t>Grasim Industries Limited</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Banks</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>942378</v>
+        <v>14631</v>
       </c>
       <c r="F73" t="n">
-        <v>535.9299999999999</v>
+        <v>337.49</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0015</v>
+        <v>0.001</v>
       </c>
       <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GRAS02</t>
+          <t>TLSL01</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>INE047A01021</t>
+          <t>INE985S01024</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Grasim Industries Limited</t>
+          <t>TeamLease Services Limited</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Commercial Services &amp; Supplies</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14631</v>
+        <v>10406</v>
       </c>
       <c r="F74" t="n">
-        <v>337.49</v>
+        <v>202.81</v>
       </c>
       <c r="G74" t="n">
-        <v>0.001</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TLSL01</t>
+          <t>SMIL02</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>INE985S01024</t>
+          <t>INE597I01028</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TeamLease Services Limited</t>
+          <t>Sharda Motor Industries Ltd.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>10406</v>
+        <v>2900</v>
       </c>
       <c r="F75" t="n">
-        <v>202.81</v>
+        <v>45.57</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0001</v>
       </c>
       <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SMIL02</t>
+          <t>CUBE01</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>INE597I01028</t>
+          <t>INE0NR623014</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sharda Motor Industries Ltd.</t>
+          <t>Cube Highways Trust-InvIT Fund</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Auto Components</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2900</v>
+        <v>3800000</v>
       </c>
       <c r="F76" t="n">
-        <v>45.57</v>
+        <v>4560</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0001</v>
+        <v>0.0129</v>
       </c>
       <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CUBE01</t>
+          <t>NHIT01</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>INE0NR623014</t>
+          <t>INE0H7R23014</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cube Highways Trust-InvIT Fund</t>
+          <t>National Highways Infra Trust</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2898,62 +2898,62 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3800000</v>
+        <v>1864760</v>
       </c>
       <c r="F77" t="n">
-        <v>4560</v>
+        <v>2426.05</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0129</v>
+        <v>0.0069</v>
       </c>
       <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NHIT01</t>
+          <t>MEBP01</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>INE0H7R23014</t>
+          <t>INE0CCU25019</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>National Highways Infra Trust</t>
+          <t>Mindspace Business Parks REIT</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Transport Infrastructure</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1864760</v>
+        <v>740095</v>
       </c>
       <c r="F78" t="n">
-        <v>2426.05</v>
+        <v>2686.03</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0069</v>
+        <v>0.0076</v>
       </c>
       <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MEBP01</t>
+          <t>NXST01</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>INE0CCU25019</t>
+          <t>INE0NDH25011</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mindspace Business Parks REIT</t>
+          <t>Nexus Select Trust - REIT</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2962,30 +2962,30 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>740095</v>
+        <v>1400000</v>
       </c>
       <c r="F79" t="n">
-        <v>2686.03</v>
+        <v>1838.2</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0076</v>
+        <v>0.0052</v>
       </c>
       <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NXST01</t>
+          <t>BRFI01</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>INE0NDH25011</t>
+          <t>INE0FDU25010</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Nexus Select Trust - REIT</t>
+          <t>Brookfield India Real Estate Trust</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2994,595 +2994,589 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1400000</v>
+        <v>410584</v>
       </c>
       <c r="F80" t="n">
-        <v>1838.2</v>
+        <v>1228.34</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0052</v>
+        <v>0.0035</v>
       </c>
       <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BRFI01</t>
+          <t>TOPL39</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>INE0FDU25010</t>
+          <t>INE813H07259</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Brookfield India Real Estate Trust</t>
+          <t>8.65% Torrent Power Limited**</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Realty</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>410584</v>
+        <v>300</v>
       </c>
       <c r="F81" t="n">
-        <v>1228.34</v>
+        <v>3104.08</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="H81" t="inlineStr"/>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.079897</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GOI5721</t>
+          <t>MMFS1188</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>IN0020240027</t>
+          <t>INE774D07VF8</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>7.23% Government of India</t>
+          <t>8.18% Mahindra &amp; Mahindra Financial Services Limited**</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>7500000</v>
+        <v>3000</v>
       </c>
       <c r="F82" t="n">
-        <v>7711.15</v>
+        <v>3029.34</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0218</v>
+        <v>0.0086</v>
       </c>
       <c r="H82" t="n">
-        <v>0.070328</v>
+        <v>0.07035</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GOI5196</t>
+          <t>MNGF318</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>IN0020230077</t>
+          <t>INE522D07CD6</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>7.18% Government of India</t>
+          <t>8.8% Manappuram Finance Limited**</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5900000</v>
+        <v>3000</v>
       </c>
       <c r="F83" t="n">
-        <v>6029.02</v>
+        <v>2995.75</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0171</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0.070328</v>
+        <v>0.087482</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GOI5713</t>
+          <t>RUPL50</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>IN0020240019</t>
+          <t>INE936D07182</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>7.1% Government of India</t>
+          <t>7.9% Jamnagar Utilities &amp; Power Private Limited**</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2500000</v>
+        <v>2500</v>
       </c>
       <c r="F84" t="n">
-        <v>2553.38</v>
+        <v>2522.07</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0072</v>
+        <v>0.0071</v>
       </c>
       <c r="H84" t="n">
-        <v>0.068953</v>
+        <v>0.07575</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GOI3639</t>
+          <t>BAFL914</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>IN0020210186</t>
+          <t>INE296A07SV1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>5.74% Government of India</t>
+          <t>7.82% Bajaj Finance Limited**</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>662600</v>
+        <v>2500</v>
       </c>
       <c r="F85" t="n">
-        <v>653.46</v>
+        <v>2515.19</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0019</v>
+        <v>0.0071</v>
       </c>
       <c r="H85" t="n">
-        <v>0.06710099999999999</v>
+        <v>0.07530000000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GOI804</t>
+          <t>ICFP141</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>IN0020070069</t>
+          <t>INE896L07975</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>8.28% Government of India</t>
+          <t>9.95% IndoStar Capital Finance Limited**</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100000</v>
+        <v>2500</v>
       </c>
       <c r="F86" t="n">
-        <v>103.95</v>
+        <v>2502.48</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0003</v>
+        <v>0.0071</v>
       </c>
       <c r="H86" t="n">
-        <v>0.066816</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GOI1909</t>
+          <t>NXST23</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>IN0020170042</t>
+          <t>INE0NDH07035</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>6.68% Government of India</t>
+          <t>7.72% Nexus Select Trust - REIT**</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>19510</v>
+        <v>2500</v>
       </c>
       <c r="F87" t="n">
-        <v>19.45</v>
+        <v>2500.8</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0001</v>
+        <v>0.0071</v>
       </c>
       <c r="H87" t="n">
-        <v>0.06850299999999999</v>
+        <v>0.0793</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GOI2484</t>
+          <t>TWAT25</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>IN0020200096</t>
+          <t>INE280A08015</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>6.19% Government of India</t>
+          <t>7.75% Titan Company Limited**</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>13200</v>
+        <v>2500</v>
       </c>
       <c r="F88" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>2497.29</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0071</v>
       </c>
       <c r="H88" t="n">
-        <v>0.06918199999999999</v>
+        <v>0.07725</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GOI2249</t>
+          <t>CENT241</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>IN0020190065</t>
+          <t>INE055A08037</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7.57% Government of India</t>
+          <t>8.1% Aditya Birla Real Estate Limited**</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10200</v>
+        <v>2500</v>
       </c>
       <c r="F89" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>2495.85</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0071</v>
       </c>
       <c r="H89" t="n">
-        <v>0.069241</v>
+        <v>0.082249</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GOI3607</t>
+          <t>NBAR684</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>IN0020210160</t>
+          <t>INE261F08DR2</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>7.3% Government of India</t>
+          <t>7.2% National Bank For Agriculture and Rural Development**</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="F90" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>2489.18</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.007</v>
       </c>
       <c r="H90" t="n">
-        <v>0.07205300000000001</v>
+        <v>0.07745</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GOI2179</t>
+          <t>SESA537</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>IN0020180454</t>
+          <t>INE205A08020</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>7.26% Government of India</t>
+          <t>9.5% Vedanta Limited**</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AA</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>8600</v>
+        <v>2500</v>
       </c>
       <c r="F91" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>2486.85</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.007</v>
       </c>
       <c r="H91" t="n">
-        <v>0.067107</v>
+        <v>0.097867</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TOPL39</t>
+          <t>FEBA291</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>INE813H07259</t>
+          <t>INE171A08032</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>8.65% Torrent Power Limited**</t>
+          <t>8.2% The Federal Bank Limited**</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>CARE AA+</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="F92" t="n">
-        <v>3104.08</v>
+        <v>2478.86</v>
       </c>
       <c r="G92" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.007</v>
       </c>
       <c r="H92" t="n">
-        <v>0.079897</v>
+        <v>0.08360099999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MMFS1188</t>
+          <t>SKRP21</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>INE774D07VF8</t>
+          <t>INE08BR07011</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>8.18% Mahindra &amp; Mahindra Financial Services Limited**</t>
+          <t>8.28% Suryapet Khammam Road Pvt Ltd**</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="F93" t="n">
-        <v>3029.34</v>
+        <v>2268.33</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0086</v>
+        <v>0.0064</v>
       </c>
       <c r="H93" t="n">
-        <v>0.07035</v>
+        <v>0.08211599999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MNGF318</t>
+          <t>RCIL20</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>INE522D07CD6</t>
+          <t>INE124D08019</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>8.8% Manappuram Finance Limited**</t>
+          <t>9.1% Reliance General Insuarance Company Ltd**</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>CARE A</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="F94" t="n">
-        <v>2995.75</v>
+        <v>2203.15</v>
       </c>
       <c r="G94" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0062</v>
       </c>
       <c r="H94" t="n">
-        <v>0.087482</v>
+        <v>0.1897</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RUPL50</t>
+          <t>APTU20</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INE936D07182</t>
+          <t>INE04MH07034</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>7.9% Jamnagar Utilities &amp; Power Private Limited**</t>
+          <t>9% Aptus Finance India Private Limited**</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="F95" t="n">
-        <v>2522.07</v>
+        <v>2070.41</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0071</v>
+        <v>0.0059</v>
       </c>
       <c r="H95" t="n">
-        <v>0.07575</v>
+        <v>0.1058</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BAFL914</t>
+          <t>MUFL424</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>INE296A07SV1</t>
+          <t>INE414G07JG7</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7.82% Bajaj Finance Limited**</t>
+          <t>9.09% Muthoot Finance Limited**</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F96" t="n">
-        <v>2515.19</v>
+        <v>1526.06</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0071</v>
+        <v>0.0043</v>
       </c>
       <c r="H96" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.08565</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ICFP141</t>
+          <t>PHFL84</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>INE896L07975</t>
+          <t>INE516Y07444</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>9.95% IndoStar Capital Finance Limited**</t>
+          <t>6.75% Piramal Capital &amp; Housing Finance Limited**</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CARE AA-</t>
+          <t>ICRA AA</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2500</v>
+        <v>198380</v>
       </c>
       <c r="F97" t="n">
-        <v>2502.48</v>
+        <v>1517.31</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0071</v>
+        <v>0.0043</v>
       </c>
       <c r="H97" t="n">
         <v>0.1026</v>
@@ -3591,595 +3585,595 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NXST23</t>
+          <t>GODP242</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INE0NDH07035</t>
+          <t>INE484J08089</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>7.72% Nexus Select Trust - REIT**</t>
+          <t>8.4% Godrej Properties Limited**</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>ICRA AA+</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F98" t="n">
-        <v>2500.8</v>
+        <v>1509.37</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0071</v>
+        <v>0.0043</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0793</v>
+        <v>0.08143599999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TWAT25</t>
+          <t>IINF136</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>INE280A08015</t>
+          <t>INE530B07419</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>7.75% Titan Company Limited**</t>
+          <t>9.8% IIFL Finance Limited**</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F99" t="n">
-        <v>2497.29</v>
+        <v>1499.99</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0071</v>
+        <v>0.0042</v>
       </c>
       <c r="H99" t="n">
-        <v>0.07725</v>
+        <v>0.101658</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CENT241</t>
+          <t>HLIC23</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>INE055A08037</t>
+          <t>INE795G08043</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>8.1% Aditya Birla Real Estate Limited**</t>
+          <t>8.1% HDFC Life Insurance Company Limited**</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F100" t="n">
-        <v>2495.85</v>
+        <v>1497.09</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0071</v>
+        <v>0.0042</v>
       </c>
       <c r="H100" t="n">
-        <v>0.082249</v>
+        <v>0.081415</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NBAR684</t>
+          <t>CHOL1064</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>INE261F08DR2</t>
+          <t>INE121A08PP7</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>7.2% National Bank For Agriculture and Rural Development**</t>
+          <t>9.1% Cholamandalam Investment and Finance Company Ltd</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ICRA AAA</t>
+          <t>ICRA AA+</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="F101" t="n">
-        <v>2489.18</v>
+        <v>1200.2</v>
       </c>
       <c r="G101" t="n">
-        <v>0.007</v>
+        <v>0.0034</v>
       </c>
       <c r="H101" t="n">
-        <v>0.07745</v>
+        <v>0.09080000000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SESA537</t>
+          <t>PFPL128</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>INE205A08020</t>
+          <t>INE516Y07451</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>9.5% Vedanta Limited**</t>
+          <t>8.75% Piramal Capital &amp; Housing Finance Limited**</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ICRA AA</t>
+          <t>CARE AA</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2500</v>
+        <v>1050</v>
       </c>
       <c r="F102" t="n">
-        <v>2486.85</v>
+        <v>1037.57</v>
       </c>
       <c r="G102" t="n">
-        <v>0.007</v>
+        <v>0.0029</v>
       </c>
       <c r="H102" t="n">
-        <v>0.097867</v>
+        <v>0.097979</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>FEBA291</t>
+          <t>GOSL384</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>INE171A08032</t>
+          <t>INE233A08139</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>8.2% The Federal Bank Limited**</t>
+          <t>8.42% Godrej Industries Limited**</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CARE AA+</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="F103" t="n">
-        <v>2478.86</v>
+        <v>1004.97</v>
       </c>
       <c r="G103" t="n">
-        <v>0.007</v>
+        <v>0.0028</v>
       </c>
       <c r="H103" t="n">
-        <v>0.08360099999999999</v>
+        <v>0.081964</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SKRP21</t>
+          <t>POWF372</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INE08BR07011</t>
+          <t>INE134E08IT9</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>8.28% Suryapet Khammam Road Pvt Ltd**</t>
+          <t>7.6% Power Finance Corporation Limited**</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CARE AAA</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="F104" t="n">
-        <v>2268.33</v>
+        <v>1003.71</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0064</v>
+        <v>0.0028</v>
       </c>
       <c r="H104" t="n">
-        <v>0.08211599999999999</v>
+        <v>0.07531</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RCIL20</t>
+          <t>ICFP147</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>INE124D08019</t>
+          <t>INE896L07983</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>9.1% Reliance General Insuarance Company Ltd**</t>
+          <t>10.5% IndoStar Capital Finance Limited**</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CARE A</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>250</v>
+        <v>100000</v>
       </c>
       <c r="F105" t="n">
-        <v>2203.15</v>
+        <v>1002.07</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0062</v>
+        <v>0.0028</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1897</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>APTU20</t>
+          <t>TELA27</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>INE04MH07034</t>
+          <t>INE1C3207016</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>9% Aptus Finance India Private Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CARE AA-</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="F106" t="n">
-        <v>2070.41</v>
+        <v>617.47</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0059</v>
+        <v>0.0017</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1058</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MUFL424</t>
+          <t>TELA26</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>INE414G07JG7</t>
+          <t>INE1C3207024</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>9.09% Muthoot Finance Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F107" t="n">
-        <v>1526.06</v>
+        <v>616.75</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0043</v>
+        <v>0.0017</v>
       </c>
       <c r="H107" t="n">
-        <v>0.08565</v>
+        <v>0.091751</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PHFL84</t>
+          <t>TELA25</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>INE516Y07444</t>
+          <t>INE1C3207032</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>6.75% Piramal Capital &amp; Housing Finance Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ICRA AA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>198380</v>
+        <v>600</v>
       </c>
       <c r="F108" t="n">
-        <v>1517.31</v>
+        <v>614.58</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0043</v>
+        <v>0.0017</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1026</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GODP242</t>
+          <t>TELA24</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>INE484J08089</t>
+          <t>INE1C3207040</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>8.4% Godrej Properties Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ICRA AA+</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F109" t="n">
-        <v>1509.37</v>
+        <v>613.13</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0043</v>
+        <v>0.0017</v>
       </c>
       <c r="H109" t="n">
-        <v>0.08143599999999999</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>IINF136</t>
+          <t>TELA23</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>INE530B07419</t>
+          <t>INE1C3207065</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>9.8% IIFL Finance Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F110" t="n">
-        <v>1499.99</v>
+        <v>611.84</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0042</v>
+        <v>0.0017</v>
       </c>
       <c r="H110" t="n">
-        <v>0.101658</v>
+        <v>0.091878</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HLIC23</t>
+          <t>TELA22</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>INE795G08043</t>
+          <t>INE1C3207073</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>8.1% HDFC Life Insurance Company Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ICRA AAA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F111" t="n">
-        <v>1497.09</v>
+        <v>610.01</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0042</v>
+        <v>0.0017</v>
       </c>
       <c r="H111" t="n">
-        <v>0.081415</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CHOL1064</t>
+          <t>TELA21</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>INE121A08PP7</t>
+          <t>INE1C3207081</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>9.1% Cholamandalam Investment and Finance Company Ltd</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ICRA AA+</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F112" t="n">
-        <v>1200.2</v>
+        <v>608.08</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0034</v>
+        <v>0.0017</v>
       </c>
       <c r="H112" t="n">
-        <v>0.09080000000000001</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PFPL128</t>
+          <t>TELA20</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INE516Y07451</t>
+          <t>INE1C3207057</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>8.75% Piramal Capital &amp; Housing Finance Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CARE AA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="F113" t="n">
-        <v>1037.57</v>
+        <v>605.98</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0029</v>
+        <v>0.0017</v>
       </c>
       <c r="H113" t="n">
-        <v>0.097979</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>GOSL384</t>
+          <t>AFPL128</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>INE233A08139</t>
+          <t>INE949L08442</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>8.42% Godrej Industries Limited**</t>
+          <t>9.3% AU Small Finance Bank Limited**</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="F114" t="n">
-        <v>1004.97</v>
+        <v>502.02</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0028</v>
+        <v>0.0014</v>
       </c>
       <c r="H114" t="n">
-        <v>0.081964</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>POWF372</t>
+          <t>SUMM22</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>INE134E08IT9</t>
+          <t>INE507T07070</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>7.6% Power Finance Corporation Limited**</t>
+          <t>7.4% Summit Digitel Infrastructure Limited**</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4188,671 +4182,205 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F115" t="n">
-        <v>1003.71</v>
+        <v>497.29</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0028</v>
+        <v>0.0014</v>
       </c>
       <c r="H115" t="n">
-        <v>0.07531</v>
+        <v>0.07793799999999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ICFP147</t>
+          <t>NHIT23</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>INE896L07983</t>
+          <t>INE0H7R07066</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>10.5% IndoStar Capital Finance Limited**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CARE AA-</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>100000</v>
+        <v>1250</v>
       </c>
       <c r="F116" t="n">
-        <v>1002.07</v>
+        <v>641.63</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0028</v>
+        <v>0.0018</v>
       </c>
       <c r="H116" t="n">
-        <v>0.1026</v>
+        <v>0.077649</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TELA27</t>
+          <t>NHIT24</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>INE1C3207016</t>
+          <t>INE0H7R07058</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>600</v>
+        <v>1250</v>
       </c>
       <c r="F117" t="n">
-        <v>617.47</v>
+        <v>597.86</v>
       </c>
       <c r="G117" t="n">
         <v>0.0017</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0919</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>TELA26</t>
-        </is>
-      </c>
+      <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
-          <t>INE1C3207024</t>
+          <t>INE171A08032</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>600</v>
-      </c>
-      <c r="F118" t="n">
-        <v>616.75</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.091751</v>
-      </c>
+          <t>8.2% Federal Bank Ltd BSIII Tier2 (20/01/32)CALL</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.086846264302</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TELA25</t>
+          <t>RECA922</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>INE1C3207032</t>
+          <t>INE013A074H7</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>8.85% Reliance Capital Limited **#</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>CARE D</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>600</v>
+        <v>346</v>
       </c>
       <c r="F119" t="n">
-        <v>614.58</v>
+        <v>865</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.092</v>
-      </c>
+        <v>0.9268999999999999</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TELA24</t>
+          <t>YESB658A</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>INE1C3207040</t>
+          <t>INE528G08352</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>9.5% Yes Bank Limited **#</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>ICRA D</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="F120" t="n">
-        <v>613.13</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.092</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>$0.00%</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TELA23</t>
+          <t>YESB671A</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>INE1C3207065</t>
+          <t>INE528G08394</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>9% Yes Bank Limited **#</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>ICRA D</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>600</v>
+        <v>8153</v>
       </c>
       <c r="F121" t="n">
-        <v>611.84</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.091878</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>TELA22</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>INE1C3207073</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>600</v>
-      </c>
-      <c r="F122" t="n">
-        <v>610.01</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.0919</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>TELA21</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>INE1C3207081</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>600</v>
-      </c>
-      <c r="F123" t="n">
-        <v>608.08</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.0919</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>TELA20</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>INE1C3207057</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>600</v>
-      </c>
-      <c r="F124" t="n">
-        <v>605.98</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.0919</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>AFPL128</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>INE949L08442</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>9.3% AU Small Finance Bank Limited**</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>CRISIL AA</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>5</v>
-      </c>
-      <c r="F125" t="n">
-        <v>502.02</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.0906</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>SUMM22</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>INE507T07070</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>7.4% Summit Digitel Infrastructure Limited**</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>50</v>
-      </c>
-      <c r="F126" t="n">
-        <v>497.29</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.07793799999999999</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>NHIT23</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>INE0H7R07066</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>1250</v>
-      </c>
-      <c r="F127" t="n">
-        <v>641.63</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.077649</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>NHIT24</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>INE0H7R07058</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>1250</v>
-      </c>
-      <c r="F128" t="n">
-        <v>597.86</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.0772</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr"/>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>isin_code</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>security_name</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Yield to Call</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr"/>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>INE171A08032</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>8.2% Federal Bank Ltd BSIII Tier2 (20/01/32)CALL</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>0.086846264302</v>
-      </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr"/>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>ISIN</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Name of the Instrument</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Industry / Rating</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Market/Fair Value
-( Rs. in Lacs)</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>% to NAV</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>RECA922</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>INE013A074H7</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>8.85% Reliance Capital Limited **#</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>CARE D</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>346</v>
-      </c>
-      <c r="F132" t="n">
-        <v>865</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.9268999999999999</v>
-      </c>
-      <c r="H132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr"/>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>ISIN</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Name of the Instrument</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Industry / Rating</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Market/Fair Value
-( Rs. in Lacs)</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>% to NAV</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>YESB658A</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>INE528G08352</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>9.5% Yes Bank Limited **#</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>ICRA D</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>630</v>
-      </c>
-      <c r="F134" t="n">
         <v>0</v>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>$0.00%</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>YESB671A</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>INE528G08394</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>9% Yes Bank Limited **#</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>ICRA D</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>8153</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0</v>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
